--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45400</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44259.44873842593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>46038.38799768518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>46038</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44879.68040509259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45957</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45971.33028935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45146.65673611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45159</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45680</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44400.35104166667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>44663</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44749.46153935185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44286.35829861111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44735</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44873.41502314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44473.62018518519</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44319.58472222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44678</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44532.36038194445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44265.77363425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44245</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44446.43884259259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44442.43498842593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44537.45877314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44483.4653125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44553</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44746</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44859.48246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44537.4499537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44491.62063657407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44600.46361111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44749.57204861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44698</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44698</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44348</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44873.41621527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44873.41215277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44600</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44727.46800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44512.29815972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44469</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44508.55238425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44901.93424768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>45692.81949074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45687.56913194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45320.46957175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45132</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45112.760625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45089</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45057</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44532.36148148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44942</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44802</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44771.64868055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44774</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45098.38611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44726.47038194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45680.38516203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44928</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45337</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45630.67099537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45135.44606481482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45182.62737268519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45377.29775462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44964.72193287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45643.49821759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45231.30665509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>44943</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45357.62042824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45688.48831018519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44404.80195601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45733.33015046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44467.99322916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45734.41141203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45799.6544212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44928</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45253.32702546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44273</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45719</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45805.43019675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45805.43144675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44469</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>45805.4328125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>45362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45818.32483796297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>45678</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44981.59408564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45810.61769675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45812.57224537037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45664</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45889.93836805555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45812.57074074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45385.45444444445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>45812.35672453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45816.64196759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45589.36665509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45734.57714120371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45215.61770833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44342.63833333334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45582.70940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>45901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45898</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45899.46635416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45076.70045138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45171.36847222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45901</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45027.75973379629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45903.74715277777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45902.36002314815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45903</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44342.47787037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45693.90462962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45905.37598379629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45905.36690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45905.36045138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44810.46528935185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44908.38980324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44949</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44753.56914351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45905.35337962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45603.38311342592</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45440.48995370371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45098.3552662037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44312</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44313.6046412037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45224</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45825.45513888889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45910.31850694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44984.40291666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44901.61418981481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45917</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45071.47230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>45385.44979166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>45916.49306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>45919.32185185186</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44929.52836805556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45918.59934027777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45020</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>45670.65769675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>45533.44186342593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45918.56990740741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45603.40006944445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>45349.59127314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45219.33318287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44600.75008101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45834</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45834</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45834</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45834</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45834.48722222223</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45825</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45553.55539351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45931.80673611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44603.45552083333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45730</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44909.46761574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45562.64040509259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45841.6830787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45483.53671296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45842.44645833333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44943</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44882.50300925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45843</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45320.41258101852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45842.43893518519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45842.45458333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45299</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45845</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45232</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45211.65416666667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45849.48822916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45947</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45849.44444444445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45849.41171296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45849.44392361111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45849.5847337963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45849.57458333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45848.63670138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45849.35920138889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45849.36564814814</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45931</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45139.88244212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45734.63959490741</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45195</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45707.59214120371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45802</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45587.81385416666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45322</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45156.39575231481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45839.63515046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45635.76869212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>45799.61059027778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>45555.51167824074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45555.52300925926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45555.51967592593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44977.64599537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45554.76332175926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45545.57153935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45695.35885416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45715</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45730.47434027777</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45730.48793981481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45096</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45209.6246875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45168</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45275.64228009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45170.36912037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44869.43813657408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45089.63304398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45225.50159722222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45485.32791666667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45792.6289699074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45824.52892361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45801.30704861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44902.48420138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44390.89418981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44442.63194444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45343.26864583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45660</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45817.86206018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44902.48533564815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45222.42516203703</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44645.35204861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44575</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45751</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45821.57435185185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>45685.53512731481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44483</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44575.34390046296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44880.84497685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45184.32893518519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45754.39579861111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44973</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45035.41225694444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45695.65498842593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45679.57041666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45104.3635300926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44964.60217592592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44964.60621527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45450.72517361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45275.6434375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44517</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45156.39315972223</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45093.61719907408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45826.35545138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44909</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44883</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45730.62481481482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45363.67982638889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45147.50866898148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44951.63824074074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45070.32387731481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44977.64479166667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45206.38400462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45385.44697916666</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45959.57969907407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45035.24988425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45965.40827546296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45426.62549768519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45519.50082175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45321</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45882.62190972222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44337</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45098.36740740741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45971.3487962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45971.36572916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45971.3690625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44501</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45972</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45973.67895833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>45973</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45887.7428125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45887.74503472223</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45976.868125</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45979.61085648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45976.86789351852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45453</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45980.60459490741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>45980.61479166667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>45327.59248842593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45617</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45582.69517361111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45625</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45166.84505787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44600.45883101852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>45658</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44802</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44930</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>45327.58653935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>46030.48763888889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>45239</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44235</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45020</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>45993.43520833334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45769.32704861111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45750.45881944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45377.29270833333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>46034.33834490741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>46034.38581018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44764.70805555556</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>46038.39696759259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45996.63377314815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45727</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>46038.41594907407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45754.41046296297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>46042</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44319</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>46043.356875</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45195.33715277778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45320.41568287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45230</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45179</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44902</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>46043.36304398148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>46045.5440625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>46002.65174768519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45119</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45119.32289351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>46045.33881944444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45456.50392361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45688.43479166667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45327.33086805556</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44831.66238425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>46006.64033564815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>46049.36696759259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45628.58681712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>44511.65601851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>46051</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45035</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>46009.56645833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>46048</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>46009.56113425926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>46051</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>45699.49748842593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>46052.45369212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45002</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44873.44116898148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44895</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>45757.87659722222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>46056.31967592592</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45646</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>46056.33104166666</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45994</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>46038</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>46057.25939814815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45994</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45219.32756944445</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45688.52105324074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44771</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44873</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>46050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44922.35658564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44463.5381712963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44827.42050925926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44949</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45232</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45574</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>45171</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44467.99408564815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44572.70826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>45364.4489699074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44462</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>45006</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45006.27586805556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44594.41488425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44525</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45617</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45195.60150462963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>45614</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45320.39762731481</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44677</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>45237</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>45195</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>45349.59508101852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>45230.56825231481</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44600.46121527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45775.3581712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45589.34778935185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45126</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44846.31471064815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45069.64760416667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45708.61711805555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45314.46684027778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45230</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45702.69255787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45119.32719907408</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44250</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44855</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>45208.64910879629</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44909.50693287037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44404</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>45139.88333333333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45139.88481481482</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45314.61881944445</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44639.50024305555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44943</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44810.56458333333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45054.58020833333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44511.66649305556</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45239</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45195.59861111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45644.49724537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45531.57743055555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45453</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>44602.60689814815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45337.58306712963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45268</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45112.76186342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45112</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45040.34329861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45747.47114583333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45603.4084375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45734.64163194445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45707.59693287037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44909.49158564815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45357.31372685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45581.47168981482</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45744.54694444445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45174</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45303.28501157407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45582.70289351852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45700</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45474.7080787037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44726.476875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44265.3903587963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45075.50215277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45159</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45239.37100694444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45544.57138888889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44313.60671296297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>45603.37614583333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45364.46945601852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45239.37380787037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44596</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45282.68979166666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45152</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45660</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45076.70886574074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45317.35428240741</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45156.68371527778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45278.398125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45603.41065972222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45299.65993055556</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45006.37325231481</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45762.49965277778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45188.5975</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45130.72512731481</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44491</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45646.55222222222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45415</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45548</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45758</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45782.50270833333</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45646.55540509259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45246</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45576.47921296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45538</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45695.40079861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45587.81091435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45644.63820601852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45000.55996527777</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45400</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44259.44873842593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>46038.38799768518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>46038</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44879.68040509259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45957</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45265</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45971.33028935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45146.65673611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45159</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45680</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44400.35104166667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>44663</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44749.46153935185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44286.35829861111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44349</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44735</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44873.41502314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44473.62018518519</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44319.58472222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44678</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44532.36038194445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44265.77363425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44245</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44446.43884259259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44442.43498842593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44537.45877314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44483.4653125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44553</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44746</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44859.48246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44537.4499537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44491.62063657407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44600.46361111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44749.57204861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44698</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44698</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44348</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44873.41621527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44873.41215277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44600</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44727.46800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44512.29815972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44469</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44508.55238425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44901.93424768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>45692.81949074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45687.56913194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45320.46957175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45132</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45112.760625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45089</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45057</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44532.36148148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44942</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44802</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44771.64868055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44774</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45098.38611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44726.47038194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45680.38516203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44928</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45337</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45630.67099537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45135.44606481482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45182.62737268519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45377.29775462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44964.72193287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45643.49821759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45231.30665509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>44943</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45357.62042824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45688.48831018519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44404.80195601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45733.33015046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44467.99322916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45734.41141203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45799.6544212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44928</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45253.32702546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44273</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45719</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45805.43019675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45805.43144675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44469</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>45805.4328125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>45362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45818.32483796297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>45678</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44981.59408564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45810.61769675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45812.57224537037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45664</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45889.93836805555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45812.57074074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45385.45444444445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>45812.35672453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45816.64196759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45589.36665509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45734.57714120371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45215.61770833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44342.63833333334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45582.70940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>45901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45898</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45899.46635416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45076.70045138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45171.36847222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45901</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45027.75973379629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45903.74715277777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45902.36002314815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45903</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44342.47787037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45693.90462962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45905.37598379629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45905.36690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45905.36045138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44810.46528935185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44908.38980324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44949</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44753.56914351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45905.35337962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45603.38311342592</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45440.48995370371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45098.3552662037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44312</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44313.6046412037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45224</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45825.45513888889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45910.31850694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44984.40291666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44901.61418981481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45917</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45071.47230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>45385.44979166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>45916.49306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>45919.32185185186</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44929.52836805556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45918.59934027777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45020</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>45670.65769675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>45533.44186342593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45918.56990740741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45603.40006944445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>45349.59127314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45219.33318287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44600.75008101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45834</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45834</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45834</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45834</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45834.48722222223</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45825</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45553.55539351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45931.80673611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44603.45552083333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45730</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44909.46761574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45562.64040509259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45841.6830787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45483.53671296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45842.44645833333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44943</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44882.50300925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45843</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45320.41258101852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45842.43893518519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45842.45458333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45299</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45845</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45232</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45211.65416666667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45849.48822916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45947</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45849.44444444445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45849.41171296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45849.44392361111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45849.5847337963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45849.57458333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45848.63670138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45849.35920138889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45849.36564814814</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45931</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45139.88244212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45734.63959490741</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45195</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45707.59214120371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45802</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45587.81385416666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45322</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45156.39575231481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45839.63515046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45635.76869212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>45799.61059027778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>45555.51167824074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45555.52300925926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45555.51967592593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44977.64599537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45554.76332175926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45545.57153935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45695.35885416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45715</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45730.47434027777</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45730.48793981481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45096</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45209.6246875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45168</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45275.64228009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45170.36912037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44869.43813657408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45089.63304398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45225.50159722222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45485.32791666667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45792.6289699074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45824.52892361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45801.30704861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44902.48420138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44390.89418981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44442.63194444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45343.26864583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45660</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45817.86206018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44902.48533564815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45222.42516203703</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44645.35204861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44575</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45751</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45821.57435185185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>45685.53512731481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44483</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44575.34390046296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44880.84497685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45184.32893518519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45754.39579861111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44973</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45035.41225694444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45695.65498842593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45679.57041666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45104.3635300926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44964.60217592592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44964.60621527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45450.72517361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45275.6434375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44517</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45156.39315972223</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45093.61719907408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45826.35545138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44909</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44883</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45730.62481481482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45363.67982638889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45147.50866898148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44951.63824074074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45070.32387731481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44977.64479166667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45206.38400462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45385.44697916666</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45959.57969907407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45035.24988425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45965.40827546296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45426.62549768519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45519.50082175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45321</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45882.62190972222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44337</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45098.36740740741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45971.3487962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45971.36572916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45971.3690625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44501</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45972</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45973.67895833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>45973</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45887.7428125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45887.74503472223</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45976.868125</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45979.61085648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45976.86789351852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45453</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45980.60459490741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>45980.61479166667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>45327.59248842593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45617</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45582.69517361111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45625</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45166.84505787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44600.45883101852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>45658</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44802</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44930</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>45327.58653935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>46030.48763888889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>45239</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44235</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45020</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>45993.43520833334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45769.32704861111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45750.45881944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45377.29270833333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>46034.33834490741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>46034.38581018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44764.70805555556</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>46038.39696759259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45996.63377314815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45727</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>46038.41594907407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45754.41046296297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>46042</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44319</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>46043.356875</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45195.33715277778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45320.41568287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45230</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45179</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44902</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>46043.36304398148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>46045.5440625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>46002.65174768519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45119</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45119.32289351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>46045.33881944444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45456.50392361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45688.43479166667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45327.33086805556</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44831.66238425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>46006.64033564815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>46049.36696759259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45628.58681712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>44511.65601851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>46051</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45035</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>46009.56645833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>46048</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>46009.56113425926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>46051</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>45699.49748842593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>46052.45369212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45002</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44873.44116898148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44895</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>45757.87659722222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>46056.31967592592</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45646</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>46056.33104166666</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45994</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>46038</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>46057.25939814815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45994</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45219.32756944445</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45688.52105324074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44771</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44873</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>46050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44922.35658564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44463.5381712963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44827.42050925926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44949</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45232</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45574</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>45171</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44467.99408564815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44572.70826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>45364.4489699074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44462</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>45006</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45006.27586805556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44594.41488425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44525</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45617</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45195.60150462963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>45614</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45320.39762731481</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44677</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>45237</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>45195</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>45349.59508101852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>45230.56825231481</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44600.46121527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45775.3581712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45589.34778935185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45126</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44846.31471064815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45069.64760416667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45708.61711805555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45314.46684027778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45230</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45702.69255787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45119.32719907408</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44250</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44855</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>45208.64910879629</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44909.50693287037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>44404</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>45139.88333333333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45139.88481481482</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45314.61881944445</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44639.50024305555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44943</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44810.56458333333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45054.58020833333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44511.66649305556</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45239</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45195.59861111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45644.49724537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45531.57743055555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45453</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>44602.60689814815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45337.58306712963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45268</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45112.76186342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45112</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45040.34329861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45747.47114583333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45603.4084375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45734.64163194445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45707.59693287037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44909.49158564815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45357.31372685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45581.47168981482</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45744.54694444445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45174</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45303.28501157407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45582.70289351852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45700</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45474.7080787037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44726.476875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44265.3903587963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45075.50215277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45159</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45239.37100694444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45544.57138888889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>44313.60671296297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>45603.37614583333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45364.46945601852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45239.37380787037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44596</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45282.68979166666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45152</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45660</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45076.70886574074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45317.35428240741</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45156.68371527778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45278.398125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45603.41065972222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45299.65993055556</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45006.37325231481</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45762.49965277778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45188.5975</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45130.72512731481</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44491</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45646.55222222222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45415</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45548</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45758</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45782.50270833333</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45646.55540509259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45246</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45576.47921296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45538</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45695.40079861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45587.81091435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45644.63820601852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45000.55996527777</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45400</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44259.44873842593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>46069</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>46038.38799768518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>46038</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44879.68040509259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45832</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>45265</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>45971.33028935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>45841</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45146.65673611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>45680</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44400.35104166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44749.46153935185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44286.35829861111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44735</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44873.41502314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44473.62018518519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44319.58472222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44678</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44532.36038194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44265.77363425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44446.43884259259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44442.43498842593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44537.45877314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44483</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44483.4653125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44553</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44746</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44859.48246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>44537.4499537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44491.62063657407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44600.46361111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44749.57204861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44698</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44698</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44348</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44873.41215277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44873.41621527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44600</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44727.46800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44512.29815972222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44508.55238425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44901.93424768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45320.46957175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45692.81949074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45687.56913194444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45132</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44942</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45112.760625</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44532.36148148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44802</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44771.64868055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44774</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45278</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45098.38611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44726.47038194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44928</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45337</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45680.38516203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45630.67099537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45135.44606481482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45182.62737268519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45377.29775462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44964.72193287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45643.49821759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45231.30665509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45357.62042824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45688.48831018519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44943</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44404.80195601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45733.33015046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45734.41141203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45253.32702546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>45719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44273</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44469</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>45362</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45664</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45385.45444444445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45589.36665509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44981.59408564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44501</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45215.61770833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45171.36847222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44342.63833333334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45582.70940972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45274</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45076.70045138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45027.75973379629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45818.32483796297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45825.45513888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44342.47787037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45693.90462962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44810.46528935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44908.38980324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45889.93836805555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44949</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44949</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44753.56914351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45603.38311342592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45440.48995370371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45098.3552662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44312</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44313.6046412037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45224</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45734.57714120371</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>45533.44186342593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44984.40291666667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>45905</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>45901</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45898</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45899.46635416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44901.61418981481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45901</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45834</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45834</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45071.47230324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>45385.44979166667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45834</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45903.74715277777</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45834.48722222223</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45825</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44929.52836805556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45902.36002314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>45903</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45020</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45670.65769675926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45905.37598379629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45905.36690972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45905.36045138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45905.35337962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45603.40006944445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45349.59127314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45219.33318287037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45841.6830787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44600.75008101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45842.44645833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45910.31850694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45456</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>45843</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>45845</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>45842.43893518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45842.45458333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>45299</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>45845</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45849.48822916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45849.44444444445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>45849.41171296296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45553.55539351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45849.44392361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>45917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45849.5847337963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>45849.57458333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45848.63670138889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45849.35920138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45849.36564814814</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>45916.49306712963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45919.32185185186</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45918.59934027777</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44603.45552083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45730</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45734.63959490741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45918.56990740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44909.46761574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45562.64040509259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44865</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45483.53671296296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45322</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45156.39575231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45839.63515046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45635.76869212963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45799.61059027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45555.51167824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45555.52300925926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45555.51967592593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44977.64599537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45554.76332175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45545.57153935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45695.35885416667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45715</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45730.47434027777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45730.48793981481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45096</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45209.6246875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45168</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45275.64228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45170.36912037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44869.43813657408</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45089.63304398148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45225.50159722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45485.32791666667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45792.6289699074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45824.52892361111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45801.30704861111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44902.48420138889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44390.89418981481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44951</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44442.63194444445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45343.26864583333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45660</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45817.86206018519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44902.48533564815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44882.50300925926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45222.42516203703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44645.35204861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44575</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45751</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45821.57435185185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45320.41258101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45685.53512731481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44553</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44575.34390046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44880.84497685185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45184.32893518519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45754.39579861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44973</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45035.41225694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45695.65498842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45679.57041666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45104.3635300926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44964.60217592592</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44964.60621527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45450.72517361111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45275.6434375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44517</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44280</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45156.39315972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45093.61719907408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45104</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45826.35545138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44909</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45730.62481481482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>45363.67982638889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45147.50866898148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44951.63824074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>45070.32387731481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44977.64479166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>45232</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>45931.80673611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>45211.65416666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>45882.62190972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>45139.88244212963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>45195</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45707.59214120371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>45587.81385416666</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45981</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45887.7428125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45887.74503472223</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44883</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45206.38400462963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44467.99322916667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45385.44697916666</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45947</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45931</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45035.24988425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45426.62549768519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45519.50082175926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45321</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44337</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45098.36740740741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44501</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45959.57969907407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45965.40827546296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45453</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45971.3487962963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45327.59248842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45971.36572916667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45617</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45971.3690625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45582.69517361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45625</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45972</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45166.84505787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45973.67895833333</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44600.45883101852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45973</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45658</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44802</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45976.868125</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>45979.61085648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>45976.86789351852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44930</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>45980.60459490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45980.61479166667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45327.58653935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45239</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45020</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45769.32704861111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45750.45881944444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45377.29270833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44764.70805555556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45993.43520833334</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>46034.33834490741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>46034.38581018519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45994</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45131</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45727</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45994</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>45754.41046296297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>46038.39696759259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44319</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>45996.63377314815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>46038.41594907407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>45195.33715277778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>45320.41568287037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>45230</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>45179</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44902</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>46043.356875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45119</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>45119.32289351852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>46043.36304398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>46045.5440625</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45456.50392361111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>46002.65174768519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45688.43479166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45327.33086805556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44831.66238425926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>46045.33881944444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45628.58681712963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44511.65601851852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>46006.64033564815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>46049.36696759259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>46051</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>46009.56645833333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>46048</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45699.49748842593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44869</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44869</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45002</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>46009.56113425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44873.44116898148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44895</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>46051</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45757.87659722222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>46052.45369212963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>45646</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45219.32756944445</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45688.52105324074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44771</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>46056.31967592592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44873</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>46056.33104166666</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45994</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>46038</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>46057.25939814815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>45994</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44922.35658564815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44463.5381712963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44827.42050925926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44949</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45232</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45574</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45171</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>46063.57797453704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44467.99408564815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44572.70826388889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45364.4489699074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44462</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45006</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45006.27586805556</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44594.41488425926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>46042</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44525</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45617</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>45195.60150462963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>45614</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45320.39762731481</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44677</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>45237</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>46030.48763888889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45195</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45349.59508101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45230.56825231481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>46066</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>46050</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44600.46121527778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45775.3581712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45589.34778935185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45126</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44846.31471064815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45069.64760416667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45708.61711805555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>45314.46684027778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45643</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45230</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>45702.69255787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>45119.32719907408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44250</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44855</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>45208.64910879629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44909.50693287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>45139.88333333333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>45139.88481481482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45314.61881944445</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44639.50024305555</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44943</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>45342</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45342</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44810.56458333333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45054.58020833333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44511.66649305556</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45239</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45195.59861111111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45644.49724537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>45531.57743055555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45453</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>44602.60689814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>45337.58306712963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>45268</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45112.76186342593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45040.34329861111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45747.47114583333</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>45135</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>45603.4084375</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>45734.64163194445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45707.59693287037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>44909.49158564815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>45357.31372685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>45581.47168981482</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45744.54694444445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>45174</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45303.28501157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>45582.70289351852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>45700</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>45474.7080787037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45022</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45211</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>44726.476875</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>44265.3903587963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45075.50215277778</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>45159</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45239.37100694444</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45544.57138888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>44313.60671296297</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45603.37614583333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45364.46945601852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45239.37380787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45282.68979166666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>45152</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>45660</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45076.70886574074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>45317.35428240741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45156.68371527778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45278.398125</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45603.41065972222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45299.65993055556</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45006.37325231481</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45762.49965277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45188.5975</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45130.72512731481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>44491</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45646.55222222222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28980,7 +28980,7 @@
         <v>45415</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>45548</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45758</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>45782.50270833333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29208,7 +29208,7 @@
         <v>45646.55540509259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>45246</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45576.47921296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45538</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45695.40079861111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45273</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45587.81091435185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45644.63820601852</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45000.55996527777</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45799.6544212963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45805.43019675926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45805.43144675926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45805.4328125</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45810.61769675926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45812.57224537037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45812.57074074074</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45812.35672453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45816.64196759259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
